--- a/SCRC_2024_Olympics_Pool_PICKS.xlsx
+++ b/SCRC_2024_Olympics_Pool_PICKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{D84A91DA-60D3-4F5D-ACEB-AB2123FA66D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6165B7DD-9CB3-41C4-975F-7B7E2C0FEE59}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{D84A91DA-60D3-4F5D-ACEB-AB2123FA66D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E30DF36E-12BC-4DC6-AFE0-B3FFB98D44AB}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="4215" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL_ENTRIES" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="63">
   <si>
     <t>Event</t>
   </si>
@@ -74,45 +74,6 @@
     <t>Oblique Seville</t>
   </si>
   <si>
-    <t>Richardson</t>
-  </si>
-  <si>
-    <t>Alfred</t>
-  </si>
-  <si>
-    <t>Fraser Pryce</t>
-  </si>
-  <si>
-    <t>Bednarek</t>
-  </si>
-  <si>
-    <t>Tebogo</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Hudson-Smith</t>
-  </si>
-  <si>
-    <t>Hall</t>
-  </si>
-  <si>
-    <t>Gardiner</t>
-  </si>
-  <si>
-    <t>Paulino</t>
-  </si>
-  <si>
-    <t>Pryce</t>
-  </si>
-  <si>
-    <t>Kaczmarek</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -120,9 +81,6 @@
   </si>
   <si>
     <t>Italy</t>
-  </si>
-  <si>
-    <t>Great Britain</t>
   </si>
   <si>
     <t>Fred Kerley</t>
@@ -584,6 +542,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,7 +561,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,18 +867,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA354F7-B6AD-4E14-AF45-3439114430B4}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="18.85546875" style="30"/>
+    <col min="1" max="1" width="19.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="18.85546875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -940,7 +898,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>12</v>
@@ -951,114 +909,114 @@
       <c r="D2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>48</v>
+      <c r="E2" s="25" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="25"/>
+        <v>20</v>
+      </c>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="25"/>
+        <v>51</v>
+      </c>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="26"/>
+        <v>32</v>
+      </c>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1078,7 +1036,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>12</v>
@@ -1087,116 +1045,116 @@
         <v>13</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>47</v>
+        <v>18</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="25"/>
+        <v>23</v>
+      </c>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="26"/>
+        <v>32</v>
+      </c>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1216,7 +1174,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>12</v>
@@ -1225,116 +1183,116 @@
         <v>13</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="25"/>
+        <v>36</v>
+      </c>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="25"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="26"/>
+        <v>32</v>
+      </c>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1354,7 +1312,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>13</v>
@@ -1365,114 +1323,114 @@
       <c r="D32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>59</v>
+      <c r="E32" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="E33" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="25"/>
+        <v>46</v>
+      </c>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="25"/>
+        <v>47</v>
+      </c>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="E36" s="26"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="25"/>
+        <v>49</v>
+      </c>
+      <c r="E37" s="26"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="26"/>
+        <v>32</v>
+      </c>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1492,7 +1450,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>12</v>
@@ -1503,114 +1461,114 @@
       <c r="D42" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>58</v>
+      <c r="E42" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="25"/>
+        <v>36</v>
+      </c>
+      <c r="E43" s="26"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="E44" s="26"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="E45" s="26"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="25"/>
+        <v>51</v>
+      </c>
+      <c r="E46" s="26"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="E47" s="26"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="26"/>
+        <v>32</v>
+      </c>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1641,8 +1599,8 @@
       <c r="D52" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="24" t="s">
-        <v>66</v>
+      <c r="E52" s="25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1650,15 +1608,15 @@
         <v>5</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="25"/>
+        <v>54</v>
+      </c>
+      <c r="E53" s="26"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
@@ -1668,87 +1626,87 @@
         <v>13</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="E54" s="26"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="E55" s="26"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E56" s="25"/>
+        <v>51</v>
+      </c>
+      <c r="E56" s="26"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="E57" s="26"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E58" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="26"/>
+        <v>32</v>
+      </c>
+      <c r="E59" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1801,7 +1759,7 @@
     </row>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>13</v>
@@ -1812,114 +1770,114 @@
       <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>59</v>
+      <c r="E2" s="28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="28"/>
+        <v>21</v>
+      </c>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="28"/>
+        <v>46</v>
+      </c>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="28"/>
+        <v>47</v>
+      </c>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="28"/>
+        <v>49</v>
+      </c>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="29"/>
+        <v>32</v>
+      </c>
+      <c r="E9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1936,17 +1894,17 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -1966,7 +1924,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>12</v>
@@ -1977,114 +1935,114 @@
       <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>48</v>
+      <c r="E2" s="28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="28"/>
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="28"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="29"/>
+        <v>32</v>
+      </c>
+      <c r="E9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2131,7 +2089,7 @@
     </row>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>12</v>
@@ -2140,116 +2098,116 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>47</v>
+        <v>18</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="28"/>
+        <v>21</v>
+      </c>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="28"/>
+        <v>21</v>
+      </c>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="28"/>
+        <v>17</v>
+      </c>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="29"/>
+        <v>32</v>
+      </c>
+      <c r="E9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2296,7 +2254,7 @@
     </row>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>12</v>
@@ -2305,116 +2263,116 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="28"/>
+        <v>36</v>
+      </c>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="28"/>
+        <v>38</v>
+      </c>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="28"/>
+        <v>41</v>
+      </c>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="29"/>
+        <v>32</v>
+      </c>
+      <c r="E9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2461,7 +2419,7 @@
     </row>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>12</v>
@@ -2472,114 +2430,114 @@
       <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>58</v>
+      <c r="E2" s="28" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="28"/>
+        <v>36</v>
+      </c>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="28"/>
+        <v>37</v>
+      </c>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="28"/>
+        <v>21</v>
+      </c>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="28"/>
+        <v>41</v>
+      </c>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="29"/>
+        <v>32</v>
+      </c>
+      <c r="E9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2626,7 +2584,7 @@
     </row>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>13</v>
@@ -2637,114 +2595,114 @@
       <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>66</v>
+      <c r="E2" s="28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="28"/>
+        <v>37</v>
+      </c>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="28"/>
+        <v>21</v>
+      </c>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="29"/>
+        <v>32</v>
+      </c>
+      <c r="E9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2791,77 +2749,77 @@
     </row>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="27" t="s">
-        <v>67</v>
+      <c r="E2" s="28" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="28"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="28"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="28"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="28"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="28"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SCRC_2024_Olympics_Pool_PICKS.xlsx
+++ b/SCRC_2024_Olympics_Pool_PICKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{D84A91DA-60D3-4F5D-ACEB-AB2123FA66D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E30DF36E-12BC-4DC6-AFE0-B3FFB98D44AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69A50CA-3A05-4205-AE0B-81C1E35599A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL_ENTRIES" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="69">
   <si>
     <t>Event</t>
   </si>
@@ -216,6 +216,24 @@
   </si>
   <si>
     <t>4x100m - F</t>
+  </si>
+  <si>
+    <t>Andre De-Grasse</t>
+  </si>
+  <si>
+    <t>Shelley-Ann Fraser-Pryce</t>
+  </si>
+  <si>
+    <t>Zhamel Hughes</t>
+  </si>
+  <si>
+    <t>Alexander Doom</t>
+  </si>
+  <si>
+    <t>Marliedy Paulino</t>
+  </si>
+  <si>
+    <t>Natasha Pryce</t>
   </si>
 </sst>
 </file>
@@ -865,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA354F7-B6AD-4E14-AF45-3439114430B4}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -877,7 +895,7 @@
     <col min="2" max="2" width="19.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="18.85546875" style="24"/>
   </cols>
   <sheetData>
@@ -1708,8 +1726,147 @@
       </c>
       <c r="E59" s="27"/>
     </row>
+    <row r="60" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="26"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="26"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="26"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="E62:E69"/>
     <mergeCell ref="E52:E59"/>
     <mergeCell ref="E2:E9"/>
     <mergeCell ref="E12:E19"/>
@@ -1894,7 +2051,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2720,16 +2877,16 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2751,9 +2908,15 @@
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="E2" s="28" t="s">
         <v>53</v>
       </c>
@@ -2762,63 +2925,105 @@
       <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="30"/>
     </row>
   </sheetData>

--- a/SCRC_2024_Olympics_Pool_PICKS.xlsx
+++ b/SCRC_2024_Olympics_Pool_PICKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69A50CA-3A05-4205-AE0B-81C1E35599A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{D84A91DA-60D3-4F5D-ACEB-AB2123FA66D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E30DF36E-12BC-4DC6-AFE0-B3FFB98D44AB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL_ENTRIES" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="63">
   <si>
     <t>Event</t>
   </si>
@@ -216,24 +216,6 @@
   </si>
   <si>
     <t>4x100m - F</t>
-  </si>
-  <si>
-    <t>Andre De-Grasse</t>
-  </si>
-  <si>
-    <t>Shelley-Ann Fraser-Pryce</t>
-  </si>
-  <si>
-    <t>Zhamel Hughes</t>
-  </si>
-  <si>
-    <t>Alexander Doom</t>
-  </si>
-  <si>
-    <t>Marliedy Paulino</t>
-  </si>
-  <si>
-    <t>Natasha Pryce</t>
   </si>
 </sst>
 </file>
@@ -883,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA354F7-B6AD-4E14-AF45-3439114430B4}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -895,7 +877,7 @@
     <col min="2" max="2" width="19.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="18.85546875" style="24"/>
   </cols>
   <sheetData>
@@ -1726,147 +1708,8 @@
       </c>
       <c r="E59" s="27"/>
     </row>
-    <row r="60" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="17"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="26"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E64" s="26"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="26"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="26"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E67" s="26"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68" s="26"/>
-    </row>
-    <row r="69" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E69" s="27"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E62:E69"/>
+  <mergeCells count="6">
     <mergeCell ref="E52:E59"/>
     <mergeCell ref="E2:E9"/>
     <mergeCell ref="E12:E19"/>
@@ -2051,7 +1894,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2877,16 +2720,16 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2908,15 +2751,9 @@
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="28" t="s">
         <v>53</v>
       </c>
@@ -2925,105 +2762,63 @@
       <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="30"/>
     </row>
   </sheetData>

--- a/SCRC_2024_Olympics_Pool_PICKS.xlsx
+++ b/SCRC_2024_Olympics_Pool_PICKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{D84A91DA-60D3-4F5D-ACEB-AB2123FA66D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E30DF36E-12BC-4DC6-AFE0-B3FFB98D44AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A67B3BB-423D-43DE-9027-BA74F36415DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL_ENTRIES" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="69">
   <si>
     <t>Event</t>
   </si>
@@ -216,6 +216,24 @@
   </si>
   <si>
     <t>4x100m - F</t>
+  </si>
+  <si>
+    <t>Andre De-Grasse</t>
+  </si>
+  <si>
+    <t>Shelley-Ann Fraser-Pryce</t>
+  </si>
+  <si>
+    <t>Zhamel Hughes</t>
+  </si>
+  <si>
+    <t>Alexander Doom</t>
+  </si>
+  <si>
+    <t>Marliedy Paulino</t>
+  </si>
+  <si>
+    <t>Natasha Pryce</t>
   </si>
 </sst>
 </file>
@@ -865,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA354F7-B6AD-4E14-AF45-3439114430B4}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -877,7 +895,7 @@
     <col min="2" max="2" width="19.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="18.85546875" style="24"/>
   </cols>
   <sheetData>
@@ -1708,8 +1726,147 @@
       </c>
       <c r="E59" s="27"/>
     </row>
+    <row r="60" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="26"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="26"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="26"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="E62:E69"/>
     <mergeCell ref="E52:E59"/>
     <mergeCell ref="E2:E9"/>
     <mergeCell ref="E12:E19"/>
@@ -1894,7 +2051,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2720,16 +2877,16 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2751,9 +2908,15 @@
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="E2" s="28" t="s">
         <v>53</v>
       </c>
@@ -2762,63 +2925,105 @@
       <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="30"/>
     </row>
   </sheetData>

--- a/SCRC_2024_Olympics_Pool_PICKS.xlsx
+++ b/SCRC_2024_Olympics_Pool_PICKS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A67B3BB-423D-43DE-9027-BA74F36415DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{D84A91DA-60D3-4F5D-ACEB-AB2123FA66D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E30DF36E-12BC-4DC6-AFE0-B3FFB98D44AB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="4215" windowWidth="25935" windowHeight="11385" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL_ENTRIES" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="63">
   <si>
     <t>Event</t>
   </si>
@@ -216,24 +216,6 @@
   </si>
   <si>
     <t>4x100m - F</t>
-  </si>
-  <si>
-    <t>Andre De-Grasse</t>
-  </si>
-  <si>
-    <t>Shelley-Ann Fraser-Pryce</t>
-  </si>
-  <si>
-    <t>Zhamel Hughes</t>
-  </si>
-  <si>
-    <t>Alexander Doom</t>
-  </si>
-  <si>
-    <t>Marliedy Paulino</t>
-  </si>
-  <si>
-    <t>Natasha Pryce</t>
   </si>
 </sst>
 </file>
@@ -596,6 +578,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -883,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA354F7-B6AD-4E14-AF45-3439114430B4}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -895,7 +881,7 @@
     <col min="2" max="2" width="19.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="18.85546875" style="24"/>
   </cols>
   <sheetData>
@@ -1726,147 +1712,8 @@
       </c>
       <c r="E59" s="27"/>
     </row>
-    <row r="60" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="17"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="26"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E64" s="26"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="26"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="26"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E67" s="26"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68" s="26"/>
-    </row>
-    <row r="69" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E69" s="27"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E62:E69"/>
+  <mergeCells count="6">
     <mergeCell ref="E52:E59"/>
     <mergeCell ref="E2:E9"/>
     <mergeCell ref="E12:E19"/>
@@ -2876,17 +2723,17 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2908,15 +2755,9 @@
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="28" t="s">
         <v>53</v>
       </c>
@@ -2925,105 +2766,63 @@
       <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="30"/>
     </row>
   </sheetData>

--- a/SCRC_2024_Olympics_Pool_PICKS.xlsx
+++ b/SCRC_2024_Olympics_Pool_PICKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{D84A91DA-60D3-4F5D-ACEB-AB2123FA66D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E30DF36E-12BC-4DC6-AFE0-B3FFB98D44AB}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{D84A91DA-60D3-4F5D-ACEB-AB2123FA66D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D265842-562C-4883-9B36-A87426CC38EB}"/>
   <bookViews>
     <workbookView xWindow="2865" yWindow="4215" windowWidth="25935" windowHeight="11385" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="68">
   <si>
     <t>Event</t>
   </si>
@@ -216,6 +216,21 @@
   </si>
   <si>
     <t>4x100m - F</t>
+  </si>
+  <si>
+    <t>Shelley-Ann Fraser-Pryce</t>
+  </si>
+  <si>
+    <t>Zhamel Hughes</t>
+  </si>
+  <si>
+    <t>Alexander Doom</t>
+  </si>
+  <si>
+    <t>Marliedy Pauliono</t>
+  </si>
+  <si>
+    <t>Natasha Pryce</t>
   </si>
 </sst>
 </file>
@@ -2724,16 +2739,16 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2755,9 +2770,15 @@
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="E2" s="28" t="s">
         <v>53</v>
       </c>
@@ -2766,63 +2787,105 @@
       <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="30"/>
     </row>
   </sheetData>

--- a/SCRC_2024_Olympics_Pool_PICKS.xlsx
+++ b/SCRC_2024_Olympics_Pool_PICKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67bd65b767a0c66b/Documents/SCRC Olympics PICKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{D84A91DA-60D3-4F5D-ACEB-AB2123FA66D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D265842-562C-4883-9B36-A87426CC38EB}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{D84A91DA-60D3-4F5D-ACEB-AB2123FA66D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B56A84A-2B92-40EE-818A-0386A774168C}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="4215" windowWidth="25935" windowHeight="11385" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL_ENTRIES" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="67">
   <si>
     <t>Event</t>
   </si>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t>Marliedy Pauliono</t>
-  </si>
-  <si>
-    <t>Natasha Pryce</t>
   </si>
 </sst>
 </file>
@@ -593,10 +590,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -884,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA354F7-B6AD-4E14-AF45-3439114430B4}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -896,7 +889,7 @@
     <col min="2" max="2" width="19.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="18.85546875" style="24"/>
   </cols>
   <sheetData>
@@ -1727,8 +1720,147 @@
       </c>
       <c r="E59" s="27"/>
     </row>
+    <row r="60" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="26"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="26"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="26"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="E62:E69"/>
     <mergeCell ref="E52:E59"/>
     <mergeCell ref="E2:E9"/>
     <mergeCell ref="E12:E19"/>
@@ -2574,7 +2706,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,8 +2870,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,7 +2983,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>41</v>
